--- a/Training_Data/Zircon.xlsx
+++ b/Training_Data/Zircon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahcshi/Documents/GitHub/MIN_ML/TrainingData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahcshi/Documents/GitHub/MIN_ML/Training_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581DEC78-CDC3-8048-A696-7DB62C7D2213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652C4E6E-F6C6-A146-A80E-08A3A0390923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45600" yWindow="500" windowWidth="32560" windowHeight="27180" xr2:uid="{82A9D881-0301-8949-835A-2E2AAD486AE5}"/>
   </bookViews>
@@ -2134,7 +2134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AB9C46-694C-7C4C-BF38-71A761857D19}">
   <dimension ref="A1:AD2000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M659" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A463" workbookViewId="0">
       <selection activeCell="AE488" sqref="AE488"/>
     </sheetView>
   </sheetViews>
